--- a/Current_Learning_Objectives_Raw_Data.xlsx
+++ b/Current_Learning_Objectives_Raw_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Database_Design_And_Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF4B90-5F67-400A-B90F-48C3E36E7386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFEF564-1A29-4292-8282-0C830E1A4122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="23040" windowHeight="12192" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="84" yWindow="108" windowWidth="12780" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assigned_raw" sheetId="19" r:id="rId1"/>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F84664C-851A-46F3-A8C0-603E354E7D92}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1739,7 +1739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.8">
+    <row r="5" spans="1:11" ht="27">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="66.599999999999994">
+    <row r="6" spans="1:11" ht="27">
       <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="66.599999999999994">
+    <row r="7" spans="1:11" ht="27">
       <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="106.2">
+    <row r="8" spans="1:11" ht="27">
       <c r="A8" s="27" t="s">
         <v>18</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="106.2">
+    <row r="9" spans="1:11" ht="40.200000000000003">
       <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="53.4">
+    <row r="10" spans="1:11" ht="27">
       <c r="A10" s="27" t="s">
         <v>26</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="66.599999999999994">
+    <row r="11" spans="1:11">
       <c r="A11" s="27" t="s">
         <v>29</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="53.4">
+    <row r="14" spans="1:11" ht="27">
       <c r="A14" s="27" t="s">
         <v>41</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40.200000000000003">
+    <row r="15" spans="1:11">
       <c r="A15" s="27" t="s">
         <v>44</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27">
+    <row r="16" spans="1:11">
       <c r="A16" s="26" t="s">
         <v>49</v>
       </c>
@@ -3523,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903157EC-281C-4963-82FD-0983AA020019}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4992,7 +4992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE007F4C-01DF-4AAB-8C8D-D5F8F9757EA7}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
